--- a/nlp_eval.xlsx
+++ b/nlp_eval.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t xml:space="preserve">Question id</t>
   </si>
@@ -761,18 +761,18 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="Q35" activeCellId="0" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="50.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.07"/>
@@ -2172,6 +2172,9 @@
       </c>
       <c r="N32" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
